--- a/results/mp/tinybert/corona/confidence/126/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,178 +40,187 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>$</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>of</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>to</t>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,31 +768,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <v>0.96875</v>
-      </c>
-      <c r="L5">
-        <v>31</v>
-      </c>
-      <c r="M5">
-        <v>31</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
         <v>23</v>
@@ -833,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7077922077922078</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -941,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,31 +968,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4375</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3928571428571428</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3809523809523809</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3684210526315789</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7857142857142857</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,31 +1218,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L14">
+        <v>105</v>
+      </c>
+      <c r="M14">
+        <v>105</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2918454935622318</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,189 +1318,117 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L16">
+        <v>78</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L17">
+        <v>88</v>
+      </c>
+      <c r="M17">
+        <v>88</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K16">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>69</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K19">
+        <v>0.71875</v>
+      </c>
+      <c r="L19">
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <v>115</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>117</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L18">
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <v>41</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>96</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L19">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
         <v>17</v>
@@ -1509,197 +1446,197 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L21">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K21">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
-      <c r="M21">
-        <v>11</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+      <c r="K24">
+        <v>0.64</v>
+      </c>
+      <c r="L24">
+        <v>32</v>
+      </c>
+      <c r="M24">
+        <v>32</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K22">
-        <v>0.64</v>
-      </c>
-      <c r="L22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="K25">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K23">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L23">
-        <v>12</v>
-      </c>
-      <c r="M23">
-        <v>12</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K26">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L26">
+        <v>58</v>
+      </c>
+      <c r="M26">
+        <v>58</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K24">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L25">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>24</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.539906103286385</v>
-      </c>
-      <c r="L27">
-        <v>115</v>
-      </c>
-      <c r="M27">
-        <v>115</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K28">
-        <v>0.5357142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
         <v>15</v>
@@ -1717,99 +1654,99 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5169712793733682</v>
+      </c>
+      <c r="L29">
+        <v>198</v>
+      </c>
+      <c r="M29">
+        <v>198</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L30">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>41</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.4441176470588235</v>
+      </c>
+      <c r="L31">
+        <v>151</v>
+      </c>
+      <c r="M31">
+        <v>151</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K29">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>72</v>
-      </c>
-      <c r="M31">
-        <v>72</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.4545454545454545</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1821,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4496124031007752</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1847,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1873,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.3804347826086957</v>
+        <v>0.34375</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1899,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.3714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1925,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.2894736842105263</v>
+        <v>0.325</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1956,16 +1893,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1977,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.1891891891891892</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2003,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.1296296296296296</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2029,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.01535087719298246</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2055,59 +1992,215 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>449</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.008403361344537815</v>
+        <v>0.01916666666666667</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>944</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43">
+        <v>0.009422110552763818</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>0.88</v>
+      </c>
+      <c r="O43">
+        <v>0.12</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.007116104868913857</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>0.86</v>
+      </c>
+      <c r="O44">
+        <v>0.14</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.006139991813344249</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>17</v>
+      </c>
+      <c r="N45">
+        <v>0.88</v>
+      </c>
+      <c r="O45">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K43">
-        <v>0.004009163802978236</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-      <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1739</v>
+      <c r="K46">
+        <v>0.005804643714971977</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47">
+        <v>0.004830917874396135</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>17</v>
+      </c>
+      <c r="N47">
+        <v>0.88</v>
+      </c>
+      <c r="O47">
+        <v>0.12</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>0.004067402672864613</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>23</v>
+      </c>
+      <c r="N48">
+        <v>0.91</v>
+      </c>
+      <c r="O48">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.003699421965317919</v>
+      </c>
+      <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>0.84</v>
+      </c>
+      <c r="O49">
+        <v>0.16</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4309</v>
       </c>
     </row>
   </sheetData>
